--- a/biology/Biologie cellulaire et moléculaire/Plateau_strié/Plateau_strié.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Plateau_strié/Plateau_strié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plateau_stri%C3%A9</t>
+          <t>Plateau_strié</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plateau strié est l'un des différents types d'organisation des microvillosités avec les microvillosités basales et les bordures en brosse.
 Le plateau strié se caractérise par des microvillosités parallèles entre elles, régulière en largeur (0,1 µm) et longueur (1 µm), et dont les sommets sont recouverts par le Cell-Coat (ou glycocalyx), manteau glucidique. Les axes des microvillosités du plateau strié s'insèrent sur un plateau terminal (terminal web) sous-jacent.
